--- a/Data/VisaConfig.xlsx
+++ b/Data/VisaConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\AA VISA PROCESS\PAY ARENA PROCESS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E2FE72-58F4-4CC1-9B3E-379DC1E6623C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3138139-A3BC-4EF4-98C8-801E9AC54BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
@@ -172,9 +172,6 @@
     <t>SheetName_PayArenaAvailable</t>
   </si>
   <si>
-    <t>VISA_DownloadFolderPath</t>
-  </si>
-  <si>
     <t>VISA_RobotEmailAddress</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>Visa_PayArena_AddDays</t>
+  </si>
+  <si>
+    <t>VISA_PayArena_DownloadFolderPath</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -793,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -815,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -837,7 +837,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -848,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -859,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -870,7 +870,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -889,7 +889,7 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -897,10 +897,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Data/VisaConfig.xlsx
+++ b/Data/VisaConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\AA VISA PROCESS\PAY ARENA PROCESS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3138139-A3BC-4EF4-98C8-801E9AC54BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AD17BF-A02E-4D53-913C-0C299C2A0905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
+    <workbookView xWindow="4755" yWindow="435" windowWidth="11385" windowHeight="10485" activeTab="2" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>VISA_PayArena_DownloadFolderPath</t>
+  </si>
+  <si>
+    <t>OutlookServerUrl</t>
+  </si>
+  <si>
+    <t>Office365ApplicationID</t>
+  </si>
+  <si>
+    <t>Office365ApplicationSecret</t>
+  </si>
+  <si>
+    <t>Office365TenantID</t>
   </si>
 </sst>
 </file>
@@ -753,10 +765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79D8F21-4660-448E-8C3A-0D2E91DB482A}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,6 +915,38 @@
         <v>55</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
